--- a/Data_clean/MCAS/Estados_US/Edos_USA_2017/ARKANSAS_2017.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2017/ARKANSAS_2017.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D903"/>
+  <dimension ref="A1:D897"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C9">
@@ -745,7 +745,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C28">
@@ -810,7 +810,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C33">
@@ -966,7 +966,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C45">
@@ -1005,7 +1005,7 @@
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C48">
@@ -1374,7 +1374,7 @@
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C76">
@@ -1400,7 +1400,7 @@
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C78">
@@ -1665,7 +1665,7 @@
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C98">
@@ -1787,7 +1787,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1844,7 +1844,7 @@
     <row r="111">
       <c r="B111" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C111">
@@ -2174,7 +2174,7 @@
     <row r="136">
       <c r="B136" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C136">
@@ -2265,7 +2265,7 @@
     <row r="143">
       <c r="B143" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C143">
@@ -2278,7 +2278,7 @@
     <row r="144">
       <c r="B144" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C144">
@@ -2356,12 +2356,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C150">
@@ -2413,7 +2413,7 @@
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C154">
@@ -2465,7 +2465,7 @@
     <row r="158">
       <c r="B158" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C158">
@@ -2491,7 +2491,7 @@
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C160">
@@ -2543,7 +2543,7 @@
     <row r="164">
       <c r="B164" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C164">
@@ -2569,7 +2569,7 @@
     <row r="166">
       <c r="B166" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C166">
@@ -2621,7 +2621,7 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C170">
@@ -2764,7 +2764,7 @@
     <row r="181">
       <c r="B181" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C181">
@@ -2816,7 +2816,7 @@
     <row r="185">
       <c r="B185" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C185">
@@ -2881,7 +2881,7 @@
     <row r="190">
       <c r="B190" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C190">
@@ -2894,7 +2894,7 @@
     <row r="191">
       <c r="B191" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C191">
@@ -3029,7 +3029,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C201">
@@ -3042,7 +3042,7 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C202">
@@ -3055,7 +3055,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C203">
@@ -3146,7 +3146,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C210">
@@ -3185,7 +3185,7 @@
     <row r="213">
       <c r="B213" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C213">
@@ -3276,7 +3276,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C220">
@@ -3315,7 +3315,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C223">
@@ -3341,7 +3341,7 @@
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C225">
@@ -3367,7 +3367,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C227">
@@ -3393,7 +3393,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C229">
@@ -3406,7 +3406,7 @@
     <row r="230">
       <c r="B230" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C230">
@@ -3471,7 +3471,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C235">
@@ -3554,7 +3554,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C241">
@@ -3593,7 +3593,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C244">
@@ -3619,7 +3619,7 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C246">
@@ -3645,7 +3645,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C248">
@@ -3658,7 +3658,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C249">
@@ -3684,7 +3684,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C251">
@@ -3697,7 +3697,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C252">
@@ -3710,7 +3710,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C253">
@@ -3749,7 +3749,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C256">
@@ -3762,7 +3762,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C257">
@@ -3801,7 +3801,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C260">
@@ -3866,7 +3866,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C265">
@@ -3879,7 +3879,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C266">
@@ -3892,7 +3892,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C267">
@@ -3918,7 +3918,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C269">
@@ -3944,7 +3944,7 @@
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C271">
@@ -4087,7 +4087,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C282">
@@ -4113,7 +4113,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C284">
@@ -4139,7 +4139,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C286">
@@ -4152,7 +4152,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C287">
@@ -4191,7 +4191,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C290">
@@ -4300,7 +4300,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C298">
@@ -4339,7 +4339,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C301">
@@ -4391,7 +4391,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C305">
@@ -4456,7 +4456,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C310">
@@ -4508,7 +4508,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C314">
@@ -4521,7 +4521,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C315">
@@ -4534,7 +4534,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C316">
@@ -4560,7 +4560,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C318">
@@ -4625,7 +4625,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C323">
@@ -4651,7 +4651,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C325">
@@ -4677,7 +4677,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C327">
@@ -4742,7 +4742,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C332">
@@ -4755,7 +4755,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C333">
@@ -4768,7 +4768,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C334">
@@ -4851,7 +4851,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C340">
@@ -4877,7 +4877,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C342">
@@ -5007,7 +5007,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C352">
@@ -5072,7 +5072,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C357">
@@ -5137,7 +5137,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C362">
@@ -5176,7 +5176,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C365">
@@ -5189,7 +5189,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C366">
@@ -5202,7 +5202,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C367">
@@ -5228,7 +5228,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C369">
@@ -5254,7 +5254,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C371">
@@ -5293,7 +5293,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C374">
@@ -5319,7 +5319,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C376">
@@ -5436,7 +5436,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C385">
@@ -5462,7 +5462,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C387">
@@ -6299,7 +6299,7 @@
     <row r="451">
       <c r="B451" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C451">
@@ -6616,7 +6616,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C475">
@@ -6668,7 +6668,7 @@
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C479">
@@ -6764,7 +6764,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C486">
@@ -7016,7 +7016,7 @@
     <row r="505">
       <c r="B505" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C505">
@@ -7047,7 +7047,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C507">
@@ -7112,7 +7112,7 @@
     <row r="512">
       <c r="B512" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C512">
@@ -7125,7 +7125,7 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C513">
@@ -7138,7 +7138,7 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C514">
@@ -7151,7 +7151,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C515">
@@ -7177,7 +7177,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C517">
@@ -7203,7 +7203,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C519">
@@ -7216,7 +7216,7 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C520">
@@ -7229,7 +7229,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C521">
@@ -7294,7 +7294,7 @@
     <row r="526">
       <c r="B526" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C526">
@@ -7320,7 +7320,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C528">
@@ -7372,7 +7372,7 @@
     <row r="532">
       <c r="B532" t="inlineStr">
         <is>
-          <t>San Juan de los Cués</t>
+          <t>San Juan De Los Cués</t>
         </is>
       </c>
       <c r="C532">
@@ -7684,7 +7684,7 @@
     <row r="556">
       <c r="B556" t="inlineStr">
         <is>
-          <t>Santa María del Tule</t>
+          <t>Santa María Del Tule</t>
         </is>
       </c>
       <c r="C556">
@@ -7931,7 +7931,7 @@
     <row r="575">
       <c r="B575" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C575">
@@ -7944,7 +7944,7 @@
     <row r="576">
       <c r="B576" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C576">
@@ -7957,7 +7957,7 @@
     <row r="577">
       <c r="B577" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C577">
@@ -7970,7 +7970,7 @@
     <row r="578">
       <c r="B578" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C578">
@@ -7983,7 +7983,7 @@
     <row r="579">
       <c r="B579" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C579">
@@ -8079,7 +8079,7 @@
     <row r="586">
       <c r="B586" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C586">
@@ -8170,7 +8170,7 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C593">
@@ -8274,7 +8274,7 @@
     <row r="601">
       <c r="B601" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C601">
@@ -8313,7 +8313,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C604">
@@ -8352,7 +8352,7 @@
     <row r="607">
       <c r="B607" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C607">
@@ -8521,7 +8521,7 @@
     <row r="620">
       <c r="B620" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C620">
@@ -8560,7 +8560,7 @@
     <row r="623">
       <c r="B623" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C623">
@@ -8599,7 +8599,7 @@
     <row r="626">
       <c r="B626" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C626">
@@ -8638,7 +8638,7 @@
     <row r="629">
       <c r="B629" t="inlineStr">
         <is>
-          <t>Tuzamapan de Galeana</t>
+          <t>Tuzamapan De Galeana</t>
         </is>
       </c>
       <c r="C629">
@@ -8677,7 +8677,7 @@
     <row r="632">
       <c r="B632" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C632">
@@ -8760,7 +8760,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C638">
@@ -8786,7 +8786,7 @@
     <row r="640">
       <c r="B640" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C640">
@@ -8851,7 +8851,7 @@
     <row r="645">
       <c r="B645" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C645">
@@ -8864,7 +8864,7 @@
     <row r="646">
       <c r="B646" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C646">
@@ -8877,7 +8877,7 @@
     <row r="647">
       <c r="B647" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C647">
@@ -8903,7 +8903,7 @@
     <row r="649">
       <c r="B649" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C649">
@@ -9056,7 +9056,7 @@
     <row r="660">
       <c r="B660" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C660">
@@ -9173,7 +9173,7 @@
     <row r="669">
       <c r="B669" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C669">
@@ -9238,7 +9238,7 @@
     <row r="674">
       <c r="B674" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C674">
@@ -9290,7 +9290,7 @@
     <row r="678">
       <c r="B678" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C678">
@@ -9303,7 +9303,7 @@
     <row r="679">
       <c r="B679" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C679">
@@ -9368,7 +9368,7 @@
     <row r="684">
       <c r="B684" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C684">
@@ -9407,7 +9407,7 @@
     <row r="687">
       <c r="B687" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C687">
@@ -9420,7 +9420,7 @@
     <row r="688">
       <c r="B688" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C688">
@@ -9433,7 +9433,7 @@
     <row r="689">
       <c r="B689" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C689">
@@ -9446,7 +9446,7 @@
     <row r="690">
       <c r="B690" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C690">
@@ -9459,7 +9459,7 @@
     <row r="691">
       <c r="B691" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C691">
@@ -9768,7 +9768,7 @@
     <row r="714">
       <c r="B714" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C714">
@@ -10259,7 +10259,7 @@
     <row r="751">
       <c r="B751" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C751">
@@ -10420,7 +10420,7 @@
     <row r="763">
       <c r="B763" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C763">
@@ -10433,7 +10433,7 @@
     <row r="764">
       <c r="B764" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C764">
@@ -10568,7 +10568,7 @@
     <row r="774">
       <c r="B774" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C774">
@@ -10659,7 +10659,7 @@
     <row r="781">
       <c r="B781" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C781">
@@ -10750,7 +10750,7 @@
     <row r="788">
       <c r="B788" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C788">
@@ -10763,7 +10763,7 @@
     <row r="789">
       <c r="B789" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C789">
@@ -10932,7 +10932,7 @@
     <row r="802">
       <c r="B802" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C802">
@@ -10945,7 +10945,7 @@
     <row r="803">
       <c r="B803" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C803">
@@ -11049,7 +11049,7 @@
     <row r="811">
       <c r="B811" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C811">
@@ -11075,7 +11075,7 @@
     <row r="813">
       <c r="B813" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C813">
@@ -11088,7 +11088,7 @@
     <row r="814">
       <c r="B814" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C814">
@@ -11140,7 +11140,7 @@
     <row r="818">
       <c r="B818" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C818">
@@ -11270,7 +11270,7 @@
     <row r="828">
       <c r="B828" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C828">
@@ -11543,7 +11543,7 @@
     <row r="849">
       <c r="B849" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C849">
@@ -11774,7 +11774,7 @@
     <row r="866">
       <c r="B866" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C866">
@@ -12047,7 +12047,7 @@
     <row r="887">
       <c r="B887" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C887">
@@ -12060,7 +12060,7 @@
     <row r="888">
       <c r="B888" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C888">
@@ -12099,7 +12099,7 @@
     <row r="891">
       <c r="B891" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C891">
@@ -12185,41 +12185,6 @@
       </c>
       <c r="D897">
         <v>1</v>
-      </c>
-    </row>
-    <row r="899">
-      <c r="A899" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 826,856</t>
-        </is>
-      </c>
-    </row>
-    <row r="900">
-      <c r="A900" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="901">
-      <c r="A901" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="902">
-      <c r="A902" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="903">
-      <c r="A903" t="inlineStr">
-        <is>
-          <t>Junio de 2018</t>
-        </is>
       </c>
     </row>
   </sheetData>
